--- a/Krishi_Data_Analyst/Krishi_Data_Analyst_Vipin_Kumar.xlsx
+++ b/Krishi_Data_Analyst/Krishi_Data_Analyst_Vipin_Kumar.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3b3583de224602b/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumar\OneDrive\Programm\Project\Krishi_Data_Analyst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BDCF85C1-37F3-4219-8603-96CF03962BED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:40009_{BDCF85C1-37F3-4219-8603-96CF03962BED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{12AE4C05-7806-4BD1-B7E0-F9D38821806D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -572,18 +572,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="10"/>
     <xf numFmtId="9" fontId="10" fillId="6" borderId="5" xfId="10" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -940,11 +940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -960,53 +960,56 @@
     <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3" t="s">
+    <row r="3" spans="1:16" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="F4" s="9" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="F4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:16" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="J5" s="10"/>
+      <c r="L5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="2:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
       <c r="B6">
         <v>101</v>
       </c>
@@ -1035,7 +1038,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
       <c r="B7">
         <v>101</v>
       </c>
@@ -1064,7 +1070,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
       <c r="B8">
         <v>101</v>
       </c>
@@ -1093,7 +1102,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4</v>
+      </c>
       <c r="B9">
         <v>101</v>
       </c>
@@ -1122,7 +1134,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>5</v>
+      </c>
       <c r="B10">
         <v>101</v>
       </c>
@@ -1152,7 +1167,10 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6</v>
+      </c>
       <c r="B11">
         <v>101</v>
       </c>
@@ -1181,7 +1199,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7</v>
+      </c>
       <c r="B12">
         <v>101</v>
       </c>
@@ -1204,7 +1225,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>8</v>
+      </c>
       <c r="B13">
         <v>101</v>
       </c>
@@ -1220,20 +1244,23 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="4">
         <v>5</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="4">
         <v>4</v>
       </c>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>9</v>
+      </c>
       <c r="B14">
         <v>102</v>
       </c>
@@ -1250,7 +1277,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
       <c r="B15">
         <v>102</v>
       </c>
@@ -1267,7 +1297,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>11</v>
+      </c>
       <c r="B16">
         <v>102</v>
       </c>
@@ -1284,7 +1317,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>12</v>
+      </c>
       <c r="B17">
         <v>102</v>
       </c>
@@ -1300,15 +1336,18 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="K17" s="10" t="s">
+      <c r="K17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="7">
+      <c r="L17" s="9"/>
+      <c r="M17" s="5">
         <v>0.8</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>13</v>
+      </c>
       <c r="B18">
         <v>102</v>
       </c>
@@ -1325,7 +1364,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>14</v>
+      </c>
       <c r="B19">
         <v>102</v>
       </c>
@@ -1342,7 +1384,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>15</v>
+      </c>
       <c r="B20">
         <v>102</v>
       </c>
@@ -1359,7 +1404,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>16</v>
+      </c>
       <c r="B21">
         <v>102</v>
       </c>
@@ -1376,7 +1424,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>17</v>
+      </c>
       <c r="B22">
         <v>102</v>
       </c>
@@ -1393,7 +1444,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>18</v>
+      </c>
       <c r="B23">
         <v>103</v>
       </c>
@@ -1410,7 +1464,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>19</v>
+      </c>
       <c r="B24">
         <v>103</v>
       </c>
@@ -1427,7 +1484,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>20</v>
+      </c>
       <c r="B25">
         <v>102</v>
       </c>
@@ -1444,7 +1504,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>21</v>
+      </c>
       <c r="B26">
         <v>103</v>
       </c>
@@ -1461,7 +1524,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>22</v>
+      </c>
       <c r="B27">
         <v>103</v>
       </c>
@@ -1478,7 +1544,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>23</v>
+      </c>
       <c r="B28">
         <v>104</v>
       </c>
@@ -1495,7 +1564,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>24</v>
+      </c>
       <c r="B29">
         <v>104</v>
       </c>
@@ -1512,7 +1584,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>25</v>
+      </c>
       <c r="B30">
         <v>104</v>
       </c>
@@ -1529,7 +1604,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>26</v>
+      </c>
       <c r="B31">
         <v>104</v>
       </c>
@@ -1546,7 +1624,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>27</v>
+      </c>
       <c r="B32">
         <v>104</v>
       </c>
@@ -1563,7 +1644,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>28</v>
+      </c>
       <c r="B33">
         <v>104</v>
       </c>
@@ -1580,7 +1664,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>29</v>
+      </c>
       <c r="B34">
         <v>105</v>
       </c>
@@ -1597,7 +1684,10 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>30</v>
+      </c>
       <c r="B35">
         <v>105</v>
       </c>
@@ -1614,7 +1704,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>31</v>
+      </c>
       <c r="B36">
         <v>105</v>
       </c>
@@ -1631,7 +1724,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>32</v>
+      </c>
       <c r="B37">
         <v>105</v>
       </c>
@@ -1648,7 +1744,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>33</v>
+      </c>
       <c r="B38">
         <v>105</v>
       </c>
@@ -1665,7 +1764,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>34</v>
+      </c>
       <c r="B39">
         <v>105</v>
       </c>
@@ -1682,7 +1784,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>35</v>
+      </c>
       <c r="B40">
         <v>101</v>
       </c>
@@ -1699,7 +1804,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>36</v>
+      </c>
       <c r="B41">
         <v>101</v>
       </c>
@@ -1716,7 +1824,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>37</v>
+      </c>
       <c r="B42">
         <v>101</v>
       </c>
@@ -1733,7 +1844,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38</v>
+      </c>
       <c r="B43">
         <v>101</v>
       </c>
@@ -1741,7 +1855,10 @@
         <v>44410.854166666664</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>39</v>
+      </c>
       <c r="B44">
         <v>101</v>
       </c>
@@ -1749,7 +1866,10 @@
         <v>44432.4375</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>40</v>
+      </c>
       <c r="B45">
         <v>101</v>
       </c>
@@ -1757,7 +1877,10 @@
         <v>44493.645833333336</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>41</v>
+      </c>
       <c r="B46">
         <v>101</v>
       </c>
@@ -1765,7 +1888,10 @@
         <v>44493.9375</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>42</v>
+      </c>
       <c r="B47">
         <v>101</v>
       </c>
@@ -1773,7 +1899,10 @@
         <v>44493.9375</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>43</v>
+      </c>
       <c r="B48">
         <v>102</v>
       </c>
@@ -1781,7 +1910,10 @@
         <v>44410.4375</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>44</v>
+      </c>
       <c r="B49">
         <v>102</v>
       </c>
@@ -1789,7 +1921,10 @@
         <v>44410.895833333336</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>45</v>
+      </c>
       <c r="B50">
         <v>102</v>
       </c>
@@ -1797,7 +1932,10 @@
         <v>44409.520833333336</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>46</v>
+      </c>
       <c r="B51">
         <v>102</v>
       </c>
@@ -1805,7 +1943,10 @@
         <v>44409.555555555555</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>47</v>
+      </c>
       <c r="B52">
         <v>102</v>
       </c>
@@ -1813,7 +1954,10 @@
         <v>44485.479166666664</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>48</v>
+      </c>
       <c r="B53">
         <v>102</v>
       </c>
@@ -1821,7 +1965,10 @@
         <v>44487.479166666664</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>49</v>
+      </c>
       <c r="B54">
         <v>102</v>
       </c>
@@ -1829,7 +1976,10 @@
         <v>44487.479166666664</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>50</v>
+      </c>
       <c r="B55">
         <v>102</v>
       </c>
@@ -1837,7 +1987,10 @@
         <v>44487.479166666664</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>51</v>
+      </c>
       <c r="B56">
         <v>102</v>
       </c>
@@ -1845,7 +1998,10 @@
         <v>44514.479166666664</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>52</v>
+      </c>
       <c r="B57">
         <v>102</v>
       </c>
@@ -1853,7 +2009,10 @@
         <v>44525.479166666664</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>53</v>
+      </c>
       <c r="B58">
         <v>102</v>
       </c>
@@ -1861,7 +2020,10 @@
         <v>44525.479166666664</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>54</v>
+      </c>
       <c r="B59">
         <v>103</v>
       </c>
@@ -1869,7 +2031,10 @@
         <v>44409.604166666664</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>55</v>
+      </c>
       <c r="B60">
         <v>103</v>
       </c>
@@ -1877,7 +2042,10 @@
         <v>44412.5625</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>56</v>
+      </c>
       <c r="B61">
         <v>102</v>
       </c>
@@ -1885,7 +2053,10 @@
         <v>44412.770833333336</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>57</v>
+      </c>
       <c r="B62">
         <v>103</v>
       </c>
@@ -1893,7 +2064,10 @@
         <v>44423.479166666664</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>58</v>
+      </c>
       <c r="B63">
         <v>103</v>
       </c>
@@ -1901,7 +2075,10 @@
         <v>44454.854166666664</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>59</v>
+      </c>
       <c r="B64">
         <v>103</v>
       </c>
@@ -1909,7 +2086,10 @@
         <v>44454.854166666664</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>60</v>
+      </c>
       <c r="B65">
         <v>104</v>
       </c>
@@ -1917,7 +2097,10 @@
         <v>44411.479166666664</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>61</v>
+      </c>
       <c r="B66">
         <v>104</v>
       </c>
@@ -1925,7 +2108,10 @@
         <v>44411.645833333336</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>62</v>
+      </c>
       <c r="B67">
         <v>104</v>
       </c>
@@ -1933,7 +2119,10 @@
         <v>44445.479166666664</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>63</v>
+      </c>
       <c r="B68">
         <v>104</v>
       </c>
@@ -1941,7 +2130,10 @@
         <v>44459.645833333336</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>64</v>
+      </c>
       <c r="B69">
         <v>104</v>
       </c>
@@ -1949,7 +2141,10 @@
         <v>44432.604166666664</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>65</v>
+      </c>
       <c r="B70">
         <v>104</v>
       </c>
@@ -1957,7 +2152,10 @@
         <v>44433.6875</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>66</v>
+      </c>
       <c r="B71">
         <v>104</v>
       </c>
@@ -1965,7 +2163,10 @@
         <v>44433.6875</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>67</v>
+      </c>
       <c r="B72">
         <v>105</v>
       </c>
@@ -1973,7 +2174,10 @@
         <v>44409.479166666664</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>68</v>
+      </c>
       <c r="B73">
         <v>105</v>
       </c>
@@ -1981,7 +2185,10 @@
         <v>44409.354166666664</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>69</v>
+      </c>
       <c r="B74">
         <v>105</v>
       </c>
@@ -1989,7 +2196,10 @@
         <v>44409.645833333336</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>70</v>
+      </c>
       <c r="B75">
         <v>105</v>
       </c>
@@ -1997,7 +2207,10 @@
         <v>44423.479166666664</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>71</v>
+      </c>
       <c r="B76">
         <v>105</v>
       </c>
@@ -2005,7 +2218,10 @@
         <v>44423.479166666664</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>72</v>
+      </c>
       <c r="B77">
         <v>105</v>
       </c>
@@ -2013,7 +2229,10 @@
         <v>44463.6875</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>73</v>
+      </c>
       <c r="B78">
         <v>105</v>
       </c>
